--- a/test_data/test_data_3.xlsx
+++ b/test_data/test_data_3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qlrqo\Documents\전공 과목\전프 (CS408)\ChatSummarizer\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehgus\Desktop\ChatSummarizer\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6972"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1627,16 +1627,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="63.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -1647,18 +1647,18 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1669,29 +1669,29 @@
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1731,15 +1731,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1787,23 +1787,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1811,31 +1811,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1843,15 +1843,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1923,23 +1923,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1971,23 +1971,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2019,39 +2019,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>349</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2067,15 +2067,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>50</v>
       </c>
       <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -2158,16 +2158,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="91.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="91.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>386</v>
       </c>
@@ -2189,18 +2189,18 @@
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>60</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>387</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -2270,15 +2270,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>68</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -2302,23 +2302,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>72</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>73</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>389</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -2422,15 +2422,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>86</v>
       </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -2526,15 +2526,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>99</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>101</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -2566,15 +2566,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>104</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>107</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>108</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>110</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>113</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>115</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>116</v>
       </c>
@@ -2670,15 +2670,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>117</v>
       </c>
       <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>118</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>119</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>120</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>121</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>122</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>393</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>392</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>394</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>123</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>124</v>
       </c>
@@ -2758,15 +2758,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>125</v>
       </c>
       <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>126</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>127</v>
       </c>
@@ -2792,16 +2792,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="83.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>371</v>
       </c>
@@ -2834,45 +2834,45 @@
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>129</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>130</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>131</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>132</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>133</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>134</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>138</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>139</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>140</v>
       </c>
@@ -2936,15 +2936,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>141</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>142</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>143</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -2968,31 +2968,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>144</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>145</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>146</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>374</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>375</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>147</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>148</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>150</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>152</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>153</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>154</v>
       </c>
@@ -3072,47 +3072,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>155</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>156</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>157</v>
       </c>
       <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>158</v>
       </c>
       <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>159</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>162</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>163</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>164</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>165</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>166</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -3200,23 +3200,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>171</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>172</v>
       </c>
       <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>174</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>175</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>176</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>177</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>178</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>179</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>180</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>181</v>
       </c>
@@ -3288,15 +3288,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>182</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>183</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>185</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>186</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>187</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>188</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>190</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>191</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>192</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>193</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>194</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>195</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>196</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>197</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>198</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>199</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>200</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>202</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>203</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>204</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>202</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>205</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>206</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>207</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>208</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>209</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>210</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>211</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>212</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>212</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>212</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>213</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>214</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>215</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>216</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>217</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>218</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>219</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>220</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>221</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>222</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>223</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>224</v>
       </c>
@@ -3656,47 +3656,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>225</v>
       </c>
       <c r="B106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>226</v>
       </c>
       <c r="B107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>227</v>
       </c>
       <c r="B108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>228</v>
       </c>
       <c r="B109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>229</v>
       </c>
       <c r="B110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>368</v>
       </c>
@@ -3704,15 +3704,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>230</v>
       </c>
       <c r="B112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>231</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>232</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>233</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>234</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>235</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>236</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>237</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>238</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>240</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>241</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>242</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>243</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>244</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>245</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>246</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>247</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>248</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>249</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>250</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>251</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>252</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>253</v>
       </c>
@@ -3896,15 +3896,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>254</v>
       </c>
       <c r="B136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>255</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>256</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>257</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>369</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>258</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>259</v>
       </c>
@@ -3963,15 +3963,15 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="143.1640625" customWidth="1"/>
+    <col min="1" max="1" width="143.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>352</v>
       </c>
@@ -3993,18 +3993,18 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>260</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>354</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>261</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>355</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>262</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>263</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>264</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>265</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>266</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>267</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>268</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>357</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>269</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>358</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>360</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>271</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>272</v>
       </c>
@@ -4156,16 +4156,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="105.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="105.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>273</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>274</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>362</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>363</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>275</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>276</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>277</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>278</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>365</v>
       </c>
@@ -4260,15 +4260,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>279</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -4276,15 +4276,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>280</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>367</v>
       </c>
@@ -4292,15 +4292,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>281</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>378</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>282</v>
       </c>
@@ -4316,23 +4316,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>283</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>284</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>285</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>286</v>
       </c>
@@ -4348,23 +4348,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>287</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>288</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>380</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>289</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>290</v>
       </c>
@@ -4388,15 +4388,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>291</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>381</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>292</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>293</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>294</v>
       </c>
@@ -4428,15 +4428,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>295</v>
       </c>
       <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>296</v>
       </c>
@@ -4444,15 +4444,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>297</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>298</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>383</v>
       </c>
@@ -4468,15 +4468,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>299</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>300</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>301</v>
       </c>
@@ -4492,23 +4492,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>302</v>
       </c>
       <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>303</v>
       </c>
       <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>304</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>305</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>306</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>307</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>308</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>309</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>310</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>384</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>311</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>312</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>313</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>314</v>
       </c>
@@ -4607,6 +4607,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4618,13 +4619,13 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>315</v>
       </c>
@@ -4635,7 +4636,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>316</v>
       </c>
@@ -4649,7 +4650,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>317</v>
       </c>
@@ -4660,7 +4661,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>318</v>
       </c>
@@ -4671,7 +4672,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>319</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>320</v>
       </c>
@@ -4687,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>321</v>
       </c>
@@ -4695,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="25.2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>322</v>
       </c>
@@ -4706,7 +4707,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>323</v>
       </c>
@@ -4717,7 +4718,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>324</v>
       </c>
@@ -4728,7 +4729,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>325</v>
       </c>
@@ -4739,7 +4740,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>326</v>
       </c>
@@ -4747,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>327</v>
       </c>
@@ -4755,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>328</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>329</v>
       </c>
@@ -4771,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>330</v>
       </c>
@@ -4779,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>331</v>
       </c>
@@ -4787,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>332</v>
       </c>
@@ -4795,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>333</v>
       </c>
@@ -4803,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>334</v>
       </c>
@@ -4811,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>335</v>
       </c>
@@ -4819,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>336</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>337</v>
       </c>
